--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t>课程类型(课程/非课程)</t>
   </si>
@@ -128,6 +128,9 @@
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2025/0117/1d8296d6fb9e44b7808f8e99f282610c.mp4</t>
   </si>
   <si>
+    <t>{"天文地理": 0.9, "历史文明": 0.1, "工业技术": 0.1, "数学": 0.1, "物理": 0.1, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.1, "生物学": 0.1, "材料科学": 0.1, "科学家": 0.1, "科学科幻": 0.1, "其他": 0.1}</t>
+  </si>
+  <si>
     <t>《成长锦囊：探索心理小花园》.mp4</t>
   </si>
   <si>
@@ -158,7 +161,7 @@
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2025/0117/0350f62d26a84a00b6d088337f20b1d2.mp4</t>
   </si>
   <si>
-    <t>{"天文地理": 0.2, "历史文明": 0.2, "工业技术": 0.2, "数学": 0.2, "物理": 0.2, "化学": 0.2, "环境科学": 0.2, "能源科技": 0.2, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.2, "生物学": 0.2, "材料科学": 0.2, "科学家": 0.3, "科学科幻": 0.3, "其他": 0.1}</t>
+    <t>{"天文地理": 0.2, "历史文明": 0.2, "工业技术": 0.99, "数学": 0.2, "物理": 0.2, "化学": 0.2, "环境科学": 0.2, "能源科技": 0.2, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.2, "生物学": 0.2, "材料科学": 0.2, "科学家": 0.3, "科学科幻": 0.3, "其他": 0.1}</t>
   </si>
   <si>
     <t>《钟南山：生命的卫士》.mp4</t>
@@ -197,7 +200,7 @@
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2024/1220/9c55f208638342f3bad1b7dad58a64c5.mp4</t>
   </si>
   <si>
-    <t>{"天文地理": 0.1, "历史文明": 0.1, "工业技术": 0.3, "数学": 0.6, "物理": 0.2, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.2, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.2, "健康管理": 0.2, "临床知识": 0.1, "安全科学": 0.3, "信息技术": 0.9, "生物学": 0.2, "材料科学": 0.2, "科学家": 0.2, "科学科幻": 0.3, "其他": 0.1}</t>
+    <t>{"天文地理": 0.1, "历史文明": 0.1, "工业技术": 0.99, "数学": 0.6, "物理": 0.2, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.2, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.2, "健康管理": 0.2, "临床知识": 0.1, "安全科学": 0.3, "信息技术": 0.9, "生物学": 0.2, "材料科学": 0.2, "科学家": 0.2, "科学科幻": 0.3, "其他": 0.1}</t>
   </si>
   <si>
     <t>2024年全国科普教育基地能力提升慕课课程</t>
@@ -224,7 +227,7 @@
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2024/1114/39b5b4b43d544af79994c23278bdd60b.mp4</t>
   </si>
   <si>
-    <t>{"天文地理": 0.1, "历史文明": 0.2, "工业技术": 0.1, "数学": 0.1, "物理": 0.1, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.1, "生物学": 0.1, "材料科学": 0.1, "科学家": 0.2, "科学科幻": 0.1, "其他": 0.9}</t>
+    <t>{"天文地理": 0.1, "历史文明": 0.2, "工业技术": 0.99, "数学": 0.1, "物理": 0.1, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.1, "生物学": 0.1, "材料科学": 0.1, "科学家": 0.2, "科学科幻": 0.1, "其他": 0.1}</t>
   </si>
   <si>
     <t>1.科普活动创新开展形式（下）-金淼.mp4</t>
@@ -237,6 +240,9 @@
   </si>
   <si>
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2024/1114/ec953e590c134821b0536ed1081a7fbf.mp4</t>
+  </si>
+  <si>
+    <t>{"天文地理": 0.1, "历史文明": 0.99, "工业技术": 0.1, "数学": 0.1, "物理": 0.1, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.1, "生物学": 0.1, "材料科学": 0.1, "科学家": 0.2, "科学科幻": 0.1, "其他": 0.1}</t>
   </si>
   <si>
     <t>2.海洋科普研学案例分享(上)-赵博.mp4</t>
@@ -267,6 +273,9 @@
   </si>
   <si>
     <t>https://cysccresource-new.kejie.org.cn/cyscc/resource/2024/1114/e6a471df63f5472ebf7928365bf8d2b2.mp4</t>
+  </si>
+  <si>
+    <t>{"天文地理": 0.1, "历史文明": 0.1, "工业技术": 0.1, "数学": 0.1, "物理": 0.1, "化学": 0.1, "环境科学": 0.1, "能源科技": 0.1, "军事科技": 0.1, "建筑水利": 0.1, "交通运输": 0.1, "农林牧渔": 0.1, "航空航天航海": 0.1, "健康管理": 0.1, "临床知识": 0.1, "安全科学": 0.1, "信息技术": 0.1, "生物学": 0.1, "材料科学": 0.1, "科学家": 0.1, "科学科幻": 0.1, "其他": 0.1}</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1444,7 @@
   <dimension ref="A1:L7200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3636363636364" defaultRowHeight="14"/>
@@ -1707,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1739,13 +1748,13 @@
         <v>414</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1777,13 +1786,13 @@
         <v>414</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1815,13 +1824,13 @@
         <v>414</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1853,13 +1862,13 @@
         <v>414</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1891,13 +1900,13 @@
         <v>414</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1929,51 +1938,51 @@
         <v>414</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1">
         <v>525</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1981,37 +1990,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1">
         <v>1082</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2019,37 +2028,37 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1">
         <v>1082</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2057,37 +2066,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1">
         <v>1082</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2095,37 +2104,37 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1">
         <v>1082</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2133,37 +2142,37 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1">
         <v>1082</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2171,37 +2180,37 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1">
         <v>1082</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2209,37 +2218,37 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1">
         <v>1082</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2247,37 +2256,37 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1">
         <v>1082</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5002" spans="1:11">
